--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2476610.320326958</v>
+        <v>2474358.240615752</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>74.32262784156035</v>
+        <v>92.72329049755739</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>116.6532574629644</v>
+        <v>258.2317318494241</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>166.3559487480948</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>129.5398680316083</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247925</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414546</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.8587980253289</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>134.6311335666474</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>379.8213443808073</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.8460807091492</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>65.29024472877059</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576137</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>109.5557012899474</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>37.17792077063346</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>241.2831928543109</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887056</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,13 +2087,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.4946167489002</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>120.6512573180102</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,7 +2722,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.600826611594925</v>
+        <v>41.01175877060098</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.82863813027228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.70843787977265</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>37.41782514684017</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>32.84316668127778</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444147</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>33.24617119909943</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>152.0854776630161</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,10 +4147,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,10 +4195,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>221.2030256723193</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2051.278283189675</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4331,7 +4331,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4343,19 +4343,19 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450755</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189675</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2051.278283189675</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4489,16 +4489,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672848</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1527.946633477934</v>
+        <v>1163.171458061136</v>
       </c>
       <c r="V4" t="n">
-        <v>1273.262145272047</v>
+        <v>908.4869698552495</v>
       </c>
       <c r="W4" t="n">
-        <v>1273.262145272047</v>
+        <v>619.069799818289</v>
       </c>
       <c r="X4" t="n">
-        <v>1273.262145272047</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969216</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927146</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3047.278841269505</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2793.748364543341</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2793.748364543341</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2793.748364543341</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2420.282606282261</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.09613355694</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.643104275813</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.708694614562</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609106</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.936681635991</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>936.5735814686093</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>846.0716871064768</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547495</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.071769341962</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577008</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>775.7875500159902</v>
+        <v>669.4690763615338</v>
       </c>
       <c r="C7" t="n">
-        <v>775.7875500159902</v>
+        <v>500.5328934336269</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>350.4162540212911</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>202.503160438898</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>202.503160438898</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>202.503160438898</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581906</v>
@@ -4741,7 +4741,7 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672848</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672848</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="V7" t="n">
-        <v>1391.093718466961</v>
+        <v>1071.910120335304</v>
       </c>
       <c r="W7" t="n">
-        <v>1391.093718466961</v>
+        <v>1071.910120335304</v>
       </c>
       <c r="X7" t="n">
-        <v>1163.104167568943</v>
+        <v>1071.910120335304</v>
       </c>
       <c r="Y7" t="n">
-        <v>942.3115884254133</v>
+        <v>851.1175411917735</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495404</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>758.7856865549927</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>758.7856865549927</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>758.7856865549927</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4823,7 +4823,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4896,7 +4896,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>941.4970410294717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1861.344805938219</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1571.927635901259</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1343.938085003241</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1123.145505859711</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5106,28 +5106,28 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>94.56320294380356</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>244.2098454714582</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>244.2098454714582</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>739.5354516872168</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
         <v>1964.511902868375</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>917.5010142286891</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>748.5648313007822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>748.5648313007822</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>600.6517377183891</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>453.7617902204787</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>286.5656909353586</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038264</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797665</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910801</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570809</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279794</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853353</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580253</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832655</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832655</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855596</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199794</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993907</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956946</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058929</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1099.149479058929</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5276,10 +5276,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239595</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397181</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>924.8344286397181</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1552.432392194325</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2104.342122433612</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656161</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377092</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253735</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1650.832398530834</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1361.415228493873</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1133.425677595856</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1655.562009178173</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.159972732779</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5735,10 +5735,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,31 +5747,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.840175011101</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>641.8461362382113</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>472.9099533103044</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>322.7933138979687</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979687</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239595</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397181</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>924.8344286397181</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>699.73118040114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1089.459942472577</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>868.6673633290469</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6212,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239595</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>671.2000270096665</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.9786782557277</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6427,7 +6427,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6271430859674</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>95.584050252739</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239595</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397181</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2149.810879820876</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5477693179085</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>593.6115863900017</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6914,64 +6914,64 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362696</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2253.988764961266</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1177.747908249255</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,22 +7254,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>315.9123021921482</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,28 +7406,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1804.131916132773</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2356.04164637206</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.244942804173853e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>30.73901155627649</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>214.9597225531945</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.33736343303705</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108313</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>105.058398071027</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>211.9838267404999</v>
+        <v>177.5728945814938</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>192.4634841899377</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>73.62417772602106</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>16.31315520054551</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,10 +26083,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>4.506629716717811</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>799166.8139980022</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>799166.8139980024</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597545</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="F2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.614759755</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="M2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="N2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="O2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="P2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.954454091901425e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,19 +26393,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551156</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
-        <v>2.22759808821138e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181816</v>
+        <v>92183.89891818167</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683047</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683052</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683047</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683047</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-892555.2135623485</v>
+        <v>-892555.2135623477</v>
       </c>
       <c r="C6" t="n">
-        <v>436189.5321652444</v>
+        <v>436189.5321652446</v>
       </c>
       <c r="D6" t="n">
         <v>436189.5321652447</v>
       </c>
       <c r="E6" t="n">
-        <v>186006.7589816625</v>
+        <v>185972.0210562262</v>
       </c>
       <c r="F6" t="n">
-        <v>511419.220789017</v>
+        <v>511384.4828635815</v>
       </c>
       <c r="G6" t="n">
-        <v>511419.2207890174</v>
+        <v>511384.4828635814</v>
       </c>
       <c r="H6" t="n">
-        <v>511419.2207890173</v>
+        <v>511384.4828635815</v>
       </c>
       <c r="I6" t="n">
-        <v>511419.2207890172</v>
+        <v>511384.4828635816</v>
       </c>
       <c r="J6" t="n">
-        <v>293888.0183917397</v>
+        <v>293853.2804663042</v>
       </c>
       <c r="K6" t="n">
-        <v>511419.2207890174</v>
+        <v>511384.4828635816</v>
       </c>
       <c r="L6" t="n">
-        <v>511419.2207890172</v>
+        <v>511384.4828635817</v>
       </c>
       <c r="M6" t="n">
-        <v>426364.1928535056</v>
+        <v>426329.4549280698</v>
       </c>
       <c r="N6" t="n">
-        <v>511419.2207890171</v>
+        <v>511384.4828635814</v>
       </c>
       <c r="O6" t="n">
-        <v>511419.2207890172</v>
+        <v>511384.4828635818</v>
       </c>
       <c r="P6" t="n">
-        <v>511419.2207890174</v>
+        <v>511384.4828635813</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593299</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>2.273736754432321e-13</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973546</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>290.9502639294472</v>
+        <v>272.5496012734502</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>169.5585807426485</v>
+        <v>27.98010635618874</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>37.56202139152538</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>256.6980706244453</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.97318215660837</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>10.12388134767335</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>27.05470136090412</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>17.07188943047089</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>186.8473985950574</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.359001882723533e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-7.824022911033051e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28807,13 +28807,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,10 +31276,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
@@ -31288,31 +31288,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
         <v>19.17787942451121</v>
@@ -31361,43 +31361,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752261</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,19 +31440,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883116</v>
@@ -31467,13 +31467,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,25 +31835,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>100.2764607028603</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,13 +31862,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,28 +32072,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>351.6082511035029</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460043</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>730.8697159579449</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>270.4557004614709</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>573.8098963904301</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32792,31 +32792,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>753.6188077738269</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>314.3020503687028</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,31 +33029,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>382.6869096644267</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,37 +33260,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>549.9198891312108</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>460.9249101897664</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162575</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33734,25 +33734,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060506</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33974,7 +33974,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>362.180468412921</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.4905264542653</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>295.9743940159484</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34442,13 +34442,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193721</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701982</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7540807028603486</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096271</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>217.6338436891727</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243176</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>588.7356820359265</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>136.4812930471406</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243176</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>431.6758624684119</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.2770956904936</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>171.7058059242583</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>244.1325298845525</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>407.3236446867663</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>322.3705304098922</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462702</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37382,25 +37382,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709319</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
